--- a/Manufacturing/BOM.xlsx
+++ b/Manufacturing/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LATTEFOX\SharedDocs\Businesses\J&amp;R Creative Technologies\Breadstick Innovations\Projects\2208 - RP2040 Simple Dev Board\Manufacturing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LatteFox\Documents\GitHub\RP2040 Dev Board\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79E1B1D-59B6-4D6D-999F-4D952554EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7161DEF1-3DA5-4AF7-BCCC-BE3B7B8F0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{67D3A6A9-5333-48BC-86F6-A8B21BA978E6}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{67D3A6A9-5333-48BC-86F6-A8B21BA978E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>C97521</t>
   </si>
   <si>
-    <t>C97242</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -235,10 +232,13 @@
     <t>SMD-3225_4P</t>
   </si>
   <si>
-    <t>12MHz ±30ppm 20pF 100Ω</t>
-  </si>
-  <si>
     <t>LCSC Part Number</t>
+  </si>
+  <si>
+    <t>C9002</t>
+  </si>
+  <si>
+    <t>12MHz ±30ppm 20pF 80Ω</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84CA375-1E84-42EC-A2E4-183AB085C695}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -647,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -661,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -689,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -703,7 +703,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -720,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -734,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -787,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -801,7 +801,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -829,7 +829,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -843,7 +843,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -857,7 +857,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
@@ -865,16 +865,16 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">

--- a/Manufacturing/BOM.xlsx
+++ b/Manufacturing/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LatteFox\Documents\GitHub\RP2040 Dev Board\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7161DEF1-3DA5-4AF7-BCCC-BE3B7B8F0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873DA4AE-2E8A-4146-8A4F-1988D7E9CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{67D3A6A9-5333-48BC-86F6-A8B21BA978E6}"/>
+    <workbookView xWindow="11880" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{67D3A6A9-5333-48BC-86F6-A8B21BA978E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>1206</t>
   </si>
   <si>
-    <t>0603</t>
-  </si>
-  <si>
     <t>SOD-123</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>12MHz ±30ppm 20pF 80Ω</t>
+  </si>
+  <si>
+    <t>0805</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84CA375-1E84-42EC-A2E4-183AB085C695}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -689,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -829,7 +829,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -843,7 +843,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -857,7 +857,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
@@ -865,16 +865,16 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
